--- a/dataset/P2 results/data visualzation.xlsx
+++ b/dataset/P2 results/data visualzation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>note1</t>
   </si>
@@ -64,23 +64,14 @@
   <si>
     <t>Subset (count)</t>
   </si>
-  <si>
-    <t>IBK(s)</t>
-  </si>
-  <si>
-    <t>J48(s)</t>
-  </si>
-  <si>
-    <t>Randomtree(s)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -235,20 +226,35 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,22 +274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1058,11 +1049,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="323514552"/>
-        <c:axId val="323515336"/>
+        <c:axId val="270884984"/>
+        <c:axId val="270884200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="323514552"/>
+        <c:axId val="270884984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323515336"/>
+        <c:crossAx val="270884200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="323515336"/>
+        <c:axId val="270884200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,1028 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323514552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Train</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t>&amp;Test Time</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IBK(s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>P2 Original (63)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P2 Entropy 03 (31)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P2 Entropy 05 (14)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P2 Pearson 02 (36)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>P2 Pearson 03 (27)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>P2 Learner (28)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$23:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>248.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>205.179</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>334.39699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>226.49199999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>139.26300000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>197.041</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>J48(s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>P2 Original (63)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P2 Entropy 03 (31)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P2 Entropy 05 (14)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P2 Pearson 02 (36)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>P2 Pearson 03 (27)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>P2 Learner (28)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$23:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>64.956000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0">
-                  <c:v>46.796999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0">
-                  <c:v>33.651000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>51.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0">
-                  <c:v>43.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.0">
-                  <c:v>43.500999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>P2 Original (63)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P2 Entropy 03 (31)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P2 Entropy 05 (14)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P2 Pearson 02 (36)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>P2 Pearson 03 (27)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>P2 Learner (28)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$23:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Randomtree(s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>P2 Original (63)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>P2 Entropy 03 (31)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>P2 Entropy 05 (14)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>P2 Pearson 02 (36)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>P2 Pearson 03 (27)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>P2 Learner (28)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$23:$H$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>8.3030000000000008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.9829999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.298999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.2389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.3620000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="403828696"/>
-        <c:axId val="399318400"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$23:$A$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="1">
-                        <c:v>P2 Original (63)</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>P2 Entropy 03 (31)</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>P2 Entropy 05 (14)</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>P2 Pearson 02 (36)</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>P2 Pearson 03 (27)</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>P2 Learner (28)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$23:$C$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="7"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$23:$A$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="1">
-                        <c:v>P2 Original (63)</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>P2 Entropy 03 (31)</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>P2 Entropy 05 (14)</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>P2 Pearson 02 (36)</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>P2 Pearson 03 (27)</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>P2 Learner (28)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$23:$D$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="7"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$23:$A$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="1">
-                        <c:v>P2 Original (63)</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>P2 Entropy 03 (31)</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>P2 Entropy 05 (14)</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>P2 Pearson 02 (36)</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>P2 Pearson 03 (27)</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>P2 Learner (28)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$23:$G$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="7"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$23:$A$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="1">
-                        <c:v>P2 Original (63)</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>P2 Entropy 03 (31)</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>P2 Entropy 05 (14)</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>P2 Pearson 02 (36)</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>P2 Pearson 03 (27)</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>P2 Learner (28)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$23:$I$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="7"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$23:$A$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="1">
-                        <c:v>P2 Original (63)</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>P2 Entropy 03 (31)</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>P2 Entropy 05 (14)</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>P2 Pearson 02 (36)</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>P2 Pearson 03 (27)</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>P2 Learner (28)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$23:$J$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="7"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="403828696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="399318400"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="399318400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Second</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="403828696"/>
+        <c:crossAx val="270884984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2306,550 +1276,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3379,36 +1806,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3680,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:J29"/>
+  <dimension ref="A11:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:J29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,406 +2095,454 @@
   </cols>
   <sheetData>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0.96299999999999997</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.96899999999999997</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.83099999999999996</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.80900000000000005</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.79700000000000004</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>0.82699999999999996</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.80900000000000005</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0.96299999999999997</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.96899999999999997</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.82299999999999995</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.80100000000000005</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0.82699999999999996</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>0.80900000000000005</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.86199999999999999</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0.85499999999999998</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0.78</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>0.80900000000000005</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0.78400000000000003</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.98</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>0.82499999999999996</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.79</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.82899999999999996</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0.80600000000000005</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.99</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.99099999999999999</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.99</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0.82499999999999996</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0.80100000000000005</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>0.82599999999999996</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>0.79700000000000004</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.98399999999999999</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.98599999999999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.82899999999999996</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0.80700000000000005</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>0.79500000000000004</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>0.82699999999999996</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>0.81</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>0.78300000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="14">
-        <v>248.62</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17">
-        <v>64.956000000000003</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="14">
-        <v>8.3030000000000008</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="14">
-        <v>205.179</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14">
-        <v>46.796999999999997</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="14">
-        <v>5.5449999999999999</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="14">
-        <v>334.39699999999999</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14">
-        <v>33.651000000000003</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="14">
-        <v>5.9829999999999997</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="14">
-        <v>226.49199999999999</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="14">
-        <v>51.902000000000001</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="14">
-        <v>12.298999999999999</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="14">
-        <v>139.26300000000001</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14">
-        <v>43.399000000000001</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="14">
-        <v>5.2389999999999999</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>248.62</v>
+      </c>
+      <c r="C35">
+        <v>64.956000000000003</v>
+      </c>
+      <c r="D35">
+        <v>8.3030000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>205.179</v>
+      </c>
+      <c r="C36">
+        <v>46.796999999999997</v>
+      </c>
+      <c r="D36">
+        <v>5.5449999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>334.39699999999999</v>
+      </c>
+      <c r="C37">
+        <v>33.651000000000003</v>
+      </c>
+      <c r="D37">
+        <v>5.9829999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>226.49199999999999</v>
+      </c>
+      <c r="C38">
+        <v>51.902000000000001</v>
+      </c>
+      <c r="D38">
+        <v>12.298999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>139.26300000000001</v>
+      </c>
+      <c r="C39">
+        <v>43.399000000000001</v>
+      </c>
+      <c r="D39">
+        <v>5.2389999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B40">
         <v>197.041</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="14">
+      <c r="C40">
         <v>43.500999999999998</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="14">
+      <c r="D40">
         <v>8.3620000000000001</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="E27:G27"/>
@@ -4105,20 +2550,11 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
